--- a/data/train/merged_executed_test.xlsx
+++ b/data/train/merged_executed_test.xlsx
@@ -977,7 +977,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>SyntaxError("expected ':'", ('&lt;string&gt;', 8, 5, 'else\n', 8, 5))</t>
+          <t>SyntaxError("expected ':'", ('&lt;string&gt;', 8, 5, 'else\n', 8, 6))</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>SyntaxError("expected ':'", ('&lt;string&gt;', 4, 25, 'for info in logo.split()\n', 4, 25))</t>
+          <t>SyntaxError("expected ':'", ('&lt;string&gt;', 4, 25, 'for info in logo.split()\n', 4, 26))</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Шедеврум, Динамитус, Симфониус</t>
+          <t>Симфониус, Динамитус, Шедеврум</t>
         </is>
       </c>
       <c r="Q64" t="n">
